--- a/10.24作业（第一次作业）/T2-2.xlsx
+++ b/10.24作业（第一次作业）/T2-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LGRepository\Mworks.syslab\10.24第二次课作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LGRepository\Mworks.syslab\10.24作业（第一次作业）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B1B29-2D3E-43F5-A23C-B6A6FF6068F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3300998F-BFB7-4631-AC44-4B00AE70BA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{840F8624-E090-496D-B86E-A54D96A3B1B3}"/>
   </bookViews>
@@ -34,24 +34,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>第一次作业T2的Excel作答</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>C</t>
+      <t>反应时间</t>
     </r>
     <r>
       <rPr>
-        <sz val="6.5"/>
+        <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>A</t>
+      <t>/h</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -59,12 +63,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/(mol/L)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>lnC</t>
+      <t>C</t>
     </r>
     <r>
       <rPr>
@@ -87,19 +86,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>反应时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/h</t>
-    </r>
+    <t>lnCA/(mol/L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由上述结果知，k = 0.4264，C = -0.3806</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +244,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,13 +497,27 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.44996434820647419"/>
-                  <c:y val="-3.5273767862350543E-2"/>
+                  <c:x val="9.3105696261276405E-2"/>
+                  <c:y val="-0.4849339268649398"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -528,35 +539,51 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="zh-CN" altLang="en-US" b="1" baseline="0"/>
+                      <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="1" i="0" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
                       <a:t>拟合结果如下：</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="zh-CN" b="1" baseline="0"/>
+                    <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="300">
+                      <a:effectLst/>
+                    </a:endParaRPr>
                   </a:p>
                   <a:p>
                     <a:pPr>
                       <a:defRPr/>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" b="1" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1" i="0" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
                       <a:t>lnC</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" b="1" baseline="-25000"/>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1" i="0" baseline="-25000">
+                        <a:effectLst/>
+                      </a:rPr>
                       <a:t>A</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" b="1" baseline="0"/>
-                      <a:t> = 0.1829x - 0.1577</a:t>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1" i="0" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> = - 0.4264x + 0.3806</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" altLang="zh-CN" b="1" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1" i="0" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" b="1" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1" i="0" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
                       <a:t>R² = 0.9972</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+                    <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="300">
+                      <a:effectLst/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -589,6 +616,20 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -630,28 +671,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.5757490560675115E-2</c:v>
+                  <c:v>-0.10536051565782628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21467016498923297</c:v>
+                  <c:v>-0.49429632181478012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37675070960209955</c:v>
+                  <c:v>-0.86750056770472306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55284196865778079</c:v>
+                  <c:v>-1.2729656758128873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.769551078621726</c:v>
+                  <c:v>-1.7719568419318752</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92081875395237522</c:v>
+                  <c:v>-2.120263536200091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0969100130080565</c:v>
+                  <c:v>-2.5257286443082556</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3467874862246563</c:v>
+                  <c:v>-3.1010927892118172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81421DE6-EF93-4039-9C48-6A14EE515396}">
-  <dimension ref="B1:J5"/>
+  <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1904,7 +1945,7 @@
     </row>
     <row r="3" spans="2:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -1933,7 +1974,7 @@
     </row>
     <row r="4" spans="2:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
         <v>0.9</v>
@@ -1961,45 +2002,59 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>2</v>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="5">
-        <f>-LOG(C4)</f>
-        <v>4.5757490560675115E-2</v>
+        <f>LN(C4)</f>
+        <v>-0.10536051565782628</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:J5" si="0">-LOG(D4)</f>
-        <v>0.21467016498923297</v>
+        <f t="shared" ref="D5:J5" si="0">LN(D4)</f>
+        <v>-0.49429632181478012</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>0.37675070960209955</v>
+        <v>-0.86750056770472306</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0.55284196865778079</v>
+        <v>-1.2729656758128873</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>0.769551078621726</v>
+        <v>-1.7719568419318752</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>0.92081875395237522</v>
+        <v>-2.120263536200091</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>1.0969100130080565</v>
+        <v>-2.5257286443082556</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="0"/>
-        <v>1.3467874862246563</v>
-      </c>
+        <v>-3.1010927892118172</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
